--- a/Manage/static/excel_form/audit_report.xlsx
+++ b/Manage/static/excel_form/audit_report.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khm43\source\repos\Coffee 1.0\Coffee\Coffee\Manage\static\excel_form\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28C628A9-0A12-4336-BDFF-2DCB8E958556}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{903E7410-9EE5-4FF0-A96D-05E3902D22E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-3375" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AB$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$6:$AC$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="25">
   <si>
     <t xml:space="preserve">AUDIT REPORT FORM </t>
   </si>
@@ -109,6 +109,10 @@
   </si>
   <si>
     <t>01/04/2020 - 30/04/2020</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Paid By</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -183,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -243,12 +247,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -297,6 +327,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,9 +633,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:AB21"/>
+  <dimension ref="A2:AC21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -614,16 +655,18 @@
     <col min="18" max="19" width="16.375" style="1"/>
     <col min="20" max="20" width="13.25" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="16.375" style="1"/>
-    <col min="22" max="16384" width="16.375" style="2"/>
+    <col min="22" max="27" width="16.375" style="2"/>
+    <col min="28" max="28" width="16.375" style="1"/>
+    <col min="29" max="16384" width="16.375" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="12"/>
-      <c r="C2" s="21" t="s">
+      <c r="C2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -641,7 +684,7 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
     </row>
-    <row r="3" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -650,79 +693,82 @@
       </c>
       <c r="C3" s="13"/>
     </row>
-    <row r="5" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="17" t="s">
+    <row r="5" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="17" t="s">
+      <c r="F5" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="19"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="18" t="s">
+      <c r="H5" s="22"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="18" t="s">
+      <c r="K5" s="22"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="19"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="18" t="s">
+      <c r="N5" s="22"/>
+      <c r="O5" s="23"/>
+      <c r="P5" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="18" t="s">
+      <c r="Q5" s="22"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="T5" s="19"/>
-      <c r="U5" s="20"/>
-      <c r="V5" s="17" t="s">
+      <c r="T5" s="22"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="W5" s="17" t="s">
+      <c r="W5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AA5" s="17" t="s">
+      <c r="AA5" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="AB5" s="17" t="s">
+      <c r="AB5" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:28" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17"/>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
+    <row r="6" spans="1:29" s="6" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
       <c r="G6" s="5" t="s">
         <v>20</v>
       </c>
@@ -768,15 +814,16 @@
       <c r="U6" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V6" s="17"/>
-      <c r="W6" s="17"/>
-      <c r="X6" s="17"/>
-      <c r="Y6" s="17"/>
-      <c r="Z6" s="17"/>
-      <c r="AA6" s="17"/>
-      <c r="AB6" s="17"/>
-    </row>
-    <row r="7" spans="1:28" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="V6" s="20"/>
+      <c r="W6" s="20"/>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
+      <c r="AB6" s="19"/>
+      <c r="AC6" s="19"/>
+    </row>
+    <row r="7" spans="1:29" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="14"/>
       <c r="C7" s="15"/>
@@ -819,9 +866,14 @@
       <c r="AA7" s="9">
         <v>0</v>
       </c>
-      <c r="AB7" s="7"/>
-    </row>
-    <row r="8" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB7" s="9">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -849,9 +901,10 @@
       <c r="Y8" s="4"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="3"/>
-    </row>
-    <row r="9" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB8" s="17"/>
+      <c r="AC8" s="3"/>
+    </row>
+    <row r="9" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -879,9 +932,10 @@
       <c r="Y9" s="4"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="3"/>
-    </row>
-    <row r="10" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB9" s="17"/>
+      <c r="AC9" s="3"/>
+    </row>
+    <row r="10" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -909,9 +963,10 @@
       <c r="Y10" s="4"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="3"/>
-    </row>
-    <row r="11" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB10" s="17"/>
+      <c r="AC10" s="3"/>
+    </row>
+    <row r="11" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -939,9 +994,10 @@
       <c r="Y11" s="4"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="3"/>
-    </row>
-    <row r="12" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB11" s="17"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -969,9 +1025,10 @@
       <c r="Y12" s="4"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="3"/>
-    </row>
-    <row r="13" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB12" s="17"/>
+      <c r="AC12" s="3"/>
+    </row>
+    <row r="13" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -999,9 +1056,10 @@
       <c r="Y13" s="4"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="3"/>
-    </row>
-    <row r="14" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB13" s="17"/>
+      <c r="AC13" s="3"/>
+    </row>
+    <row r="14" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1029,9 +1087,10 @@
       <c r="Y14" s="4"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="3"/>
-    </row>
-    <row r="15" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB14" s="17"/>
+      <c r="AC14" s="3"/>
+    </row>
+    <row r="15" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1059,9 +1118,10 @@
       <c r="Y15" s="4"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="3"/>
-    </row>
-    <row r="16" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB15" s="17"/>
+      <c r="AC15" s="3"/>
+    </row>
+    <row r="16" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1089,9 +1149,10 @@
       <c r="Y16" s="4"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-      <c r="AB16" s="3"/>
-    </row>
-    <row r="17" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB16" s="17"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1119,9 +1180,10 @@
       <c r="Y17" s="4"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="3"/>
-    </row>
-    <row r="18" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB17" s="17"/>
+      <c r="AC17" s="3"/>
+    </row>
+    <row r="18" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1149,9 +1211,10 @@
       <c r="Y18" s="4"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="3"/>
-    </row>
-    <row r="19" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB18" s="17"/>
+      <c r="AC18" s="3"/>
+    </row>
+    <row r="19" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -1179,9 +1242,10 @@
       <c r="Y19" s="4"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="3"/>
-    </row>
-    <row r="20" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB19" s="17"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -1209,9 +1273,10 @@
       <c r="Y20" s="4"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="3"/>
-    </row>
-    <row r="21" spans="1:28" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="AB20" s="17"/>
+      <c r="AC20" s="3"/>
+    </row>
+    <row r="21" spans="1:29" ht="21" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="11"/>
@@ -1239,11 +1304,12 @@
       <c r="Y21" s="4"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="3"/>
+      <c r="AB21" s="17"/>
+      <c r="AC21" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A6:AB6" xr:uid="{F95C8CE4-F8B1-408C-BD9A-E173AFEC978B}"/>
-  <mergeCells count="19">
+  <autoFilter ref="A6:AC6" xr:uid="{F95C8CE4-F8B1-408C-BD9A-E173AFEC978B}"/>
+  <mergeCells count="20">
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1257,12 +1323,13 @@
     <mergeCell ref="J5:L5"/>
     <mergeCell ref="M5:O5"/>
     <mergeCell ref="P5:R5"/>
-    <mergeCell ref="AB5:AB6"/>
+    <mergeCell ref="AC5:AC6"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
     <mergeCell ref="Z5:Z6"/>
     <mergeCell ref="AA5:AA6"/>
+    <mergeCell ref="AB5:AB6"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
